--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -454,7 +459,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3402,6 +3491,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,6 +3527,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3472,6 +3563,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3507,6 +3599,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,6 +3635,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3577,6 +3671,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3612,6 +3707,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3647,6 +3743,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3682,6 +3779,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3717,6 +3815,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,6 +3851,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3787,6 +3887,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3822,6 +3923,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3857,6 +3959,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3892,6 +3995,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3931,6 +4035,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3972,6 +4077,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4013,6 +4119,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4052,6 +4159,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4093,6 +4201,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4134,6 +4243,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4177,6 +4287,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4218,6 +4329,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3319</v>
+        <v>0.337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3319</v>
+        <v>0.337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3319</v>
+        <v>0.337</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3319</v>
+        <v>0.337</v>
       </c>
       <c r="F2" t="n">
-        <v>79080.3363</v>
+        <v>10961</v>
       </c>
       <c r="G2" t="n">
-        <v>15925868.287</v>
+        <v>14615387.8716</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3323</v>
+        <v>0.337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3323</v>
+        <v>0.337</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3323</v>
+        <v>0.337</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3323</v>
+        <v>0.337</v>
       </c>
       <c r="F3" t="n">
-        <v>9698.6476</v>
+        <v>5758</v>
       </c>
       <c r="G3" t="n">
-        <v>15935566.9346</v>
+        <v>14615387.8716</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3355</v>
+        <v>0.337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3323</v>
+        <v>0.337</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3355</v>
+        <v>0.337</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3323</v>
+        <v>0.337</v>
       </c>
       <c r="F4" t="n">
-        <v>1324357.4491</v>
+        <v>20182.2727</v>
       </c>
       <c r="G4" t="n">
-        <v>15935566.9346</v>
+        <v>14615387.8716</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3368</v>
+        <v>0.3371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3368</v>
+        <v>0.3374</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3368</v>
+        <v>0.3374</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3368</v>
+        <v>0.3371</v>
       </c>
       <c r="F5" t="n">
-        <v>334186.4608</v>
+        <v>118605.9769</v>
       </c>
       <c r="G5" t="n">
-        <v>16269753.3954</v>
+        <v>14733993.8485</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3369</v>
+        <v>0.3374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3369</v>
+        <v>0.3376</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3369</v>
+        <v>0.3376</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3369</v>
+        <v>0.3374</v>
       </c>
       <c r="F6" t="n">
-        <v>296823.9834</v>
+        <v>75067.67080000001</v>
       </c>
       <c r="G6" t="n">
-        <v>16566577.3788</v>
+        <v>14809061.5193</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3325</v>
+        <v>0.3376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3325</v>
+        <v>0.3376</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3325</v>
+        <v>0.3376</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3325</v>
+        <v>0.3376</v>
       </c>
       <c r="F7" t="n">
-        <v>54845.7681</v>
+        <v>13813</v>
       </c>
       <c r="G7" t="n">
-        <v>16511731.6107</v>
+        <v>14809061.5193</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.337</v>
+        <v>0.3375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.337</v>
+        <v>0.3371</v>
       </c>
       <c r="D8" t="n">
-        <v>0.337</v>
+        <v>0.3375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.337</v>
+        <v>0.3371</v>
       </c>
       <c r="F8" t="n">
-        <v>8805</v>
+        <v>13229.3523</v>
       </c>
       <c r="G8" t="n">
-        <v>16520536.6107</v>
+        <v>14795832.167</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,19 +693,19 @@
         <v>0.337</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3381</v>
+        <v>0.337</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3381</v>
+        <v>0.337</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3325</v>
+        <v>0.337</v>
       </c>
       <c r="F9" t="n">
-        <v>185069.7032</v>
+        <v>4409.7273</v>
       </c>
       <c r="G9" t="n">
-        <v>16705606.3139</v>
+        <v>14791422.4397</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3381</v>
+        <v>0.3346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3383</v>
+        <v>0.3346</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3383</v>
+        <v>0.3346</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3381</v>
+        <v>0.3346</v>
       </c>
       <c r="F10" t="n">
-        <v>60772.8695</v>
+        <v>157685</v>
       </c>
       <c r="G10" t="n">
-        <v>16766379.1834</v>
+        <v>14633737.4397</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3383</v>
+        <v>0.3366</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3387</v>
+        <v>0.3366</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3387</v>
+        <v>0.3366</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3383</v>
+        <v>0.3366</v>
       </c>
       <c r="F11" t="n">
-        <v>201301.9287</v>
+        <v>29489.8261</v>
       </c>
       <c r="G11" t="n">
-        <v>16967681.1121</v>
+        <v>14663227.2658</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3387</v>
+        <v>0.3366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3399</v>
+        <v>0.3366</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3399</v>
+        <v>0.3366</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3387</v>
+        <v>0.3366</v>
       </c>
       <c r="F12" t="n">
-        <v>957988.377</v>
+        <v>88417.33500000001</v>
       </c>
       <c r="G12" t="n">
-        <v>17925669.4891</v>
+        <v>14663227.2658</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.34</v>
+        <v>0.3346</v>
       </c>
       <c r="C13" t="n">
-        <v>0.34</v>
+        <v>0.3346</v>
       </c>
       <c r="D13" t="n">
-        <v>0.34</v>
+        <v>0.3346</v>
       </c>
       <c r="E13" t="n">
-        <v>0.34</v>
+        <v>0.3346</v>
       </c>
       <c r="F13" t="n">
-        <v>100000</v>
+        <v>29940.1198</v>
       </c>
       <c r="G13" t="n">
-        <v>18025669.4891</v>
+        <v>14633287.146</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.34</v>
+        <v>0.3363</v>
       </c>
       <c r="C14" t="n">
-        <v>0.34</v>
+        <v>0.3363</v>
       </c>
       <c r="D14" t="n">
-        <v>0.34</v>
+        <v>0.3363</v>
       </c>
       <c r="E14" t="n">
-        <v>0.34</v>
+        <v>0.3363</v>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="G14" t="n">
-        <v>18025669.4891</v>
+        <v>14636287.146</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3402</v>
+        <v>0.337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3402</v>
+        <v>0.337</v>
       </c>
       <c r="E15" t="n">
-        <v>0.34</v>
+        <v>0.337</v>
       </c>
       <c r="F15" t="n">
-        <v>1466058.6042</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>19491728.0933</v>
+        <v>14639287.146</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3396</v>
+        <v>0.3354</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3396</v>
+        <v>0.3354</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3396</v>
+        <v>0.3354</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3396</v>
+        <v>0.3354</v>
       </c>
       <c r="F16" t="n">
-        <v>1000000</v>
+        <v>29316.9159</v>
       </c>
       <c r="G16" t="n">
-        <v>18491728.0933</v>
+        <v>14609970.2301</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3392</v>
+        <v>0.3353</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3392</v>
+        <v>0.3353</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3392</v>
+        <v>0.3353</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3392</v>
+        <v>0.3353</v>
       </c>
       <c r="F17" t="n">
-        <v>278595.2224</v>
+        <v>896176.655</v>
       </c>
       <c r="G17" t="n">
-        <v>18213132.8709</v>
+        <v>13713793.5751</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3353</v>
+        <v>0.3346</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3353</v>
+        <v>0.3346</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3353</v>
+        <v>0.3346</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3353</v>
+        <v>0.3346</v>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>66816.2723</v>
       </c>
       <c r="G18" t="n">
-        <v>18203132.8709</v>
+        <v>13646977.3028</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3326</v>
+        <v>0.3333</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3326</v>
+        <v>0.3333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3326</v>
+        <v>0.3333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3326</v>
+        <v>0.3333</v>
       </c>
       <c r="F19" t="n">
-        <v>73781.8783</v>
+        <v>44514.7257</v>
       </c>
       <c r="G19" t="n">
-        <v>18129350.9926</v>
+        <v>13602462.5771</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3354</v>
+        <v>0.3322</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3354</v>
+        <v>0.3322</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3354</v>
+        <v>0.3322</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3354</v>
+        <v>0.3322</v>
       </c>
       <c r="F20" t="n">
-        <v>3712.2548</v>
+        <v>131848.7826</v>
       </c>
       <c r="G20" t="n">
-        <v>18133063.2474</v>
+        <v>13470613.7945</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3345</v>
+        <v>0.3322</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3345</v>
+        <v>0.3319</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3345</v>
+        <v>0.3334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3345</v>
+        <v>0.3319</v>
       </c>
       <c r="F21" t="n">
-        <v>4050895.8231</v>
+        <v>1655705.3242</v>
       </c>
       <c r="G21" t="n">
-        <v>14082167.4243</v>
+        <v>11814908.4703</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3381</v>
+        <v>0.3334</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3381</v>
+        <v>0.3334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3381</v>
+        <v>0.3334</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3381</v>
+        <v>0.3334</v>
       </c>
       <c r="F22" t="n">
-        <v>1552</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="n">
-        <v>14083719.4243</v>
+        <v>11818908.4703</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.333</v>
+        <v>0.3322</v>
       </c>
       <c r="C23" t="n">
         <v>0.3322</v>
       </c>
       <c r="D23" t="n">
-        <v>0.333</v>
+        <v>0.3322</v>
       </c>
       <c r="E23" t="n">
         <v>0.3322</v>
       </c>
       <c r="F23" t="n">
-        <v>152841.174</v>
+        <v>83466.936</v>
       </c>
       <c r="G23" t="n">
-        <v>13930878.2503</v>
+        <v>11735441.5343</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3381</v>
+        <v>0.3352</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3381</v>
+        <v>0.3352</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3381</v>
+        <v>0.3352</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3381</v>
+        <v>0.3352</v>
       </c>
       <c r="F24" t="n">
-        <v>20120.5356</v>
+        <v>2168.6392</v>
       </c>
       <c r="G24" t="n">
-        <v>13950998.7859</v>
+        <v>11737610.1735</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3381</v>
+        <v>0.3319</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3381</v>
+        <v>0.3319</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3381</v>
+        <v>0.3319</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3381</v>
+        <v>0.3319</v>
       </c>
       <c r="F25" t="n">
-        <v>295032.8998</v>
+        <v>402359</v>
       </c>
       <c r="G25" t="n">
-        <v>13950998.7859</v>
+        <v>11335251.1735</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3379</v>
+        <v>0.3326</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3323</v>
+        <v>0.3322</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3379</v>
+        <v>0.3326</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3323</v>
+        <v>0.3322</v>
       </c>
       <c r="F26" t="n">
-        <v>307841.3879</v>
+        <v>1452446</v>
       </c>
       <c r="G26" t="n">
-        <v>13643157.398</v>
+        <v>12787697.1735</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.3379</v>
+        <v>0.3323</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3379</v>
+        <v>0.3323</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3379</v>
+        <v>0.3323</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3379</v>
+        <v>0.3323</v>
       </c>
       <c r="F27" t="n">
-        <v>1517</v>
+        <v>223330.922</v>
       </c>
       <c r="G27" t="n">
-        <v>13644674.398</v>
+        <v>13011028.0955</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3373</v>
+        <v>0.333</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3373</v>
+        <v>0.333</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3373</v>
+        <v>0.333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3373</v>
+        <v>0.333</v>
       </c>
       <c r="F28" t="n">
-        <v>8268.960300000001</v>
+        <v>2963263.2997</v>
       </c>
       <c r="G28" t="n">
-        <v>13636405.4377</v>
+        <v>15974291.3952</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3323</v>
+        <v>0.333</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3323</v>
+        <v>0.333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3323</v>
+        <v>0.333</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3323</v>
+        <v>0.333</v>
       </c>
       <c r="F29" t="n">
-        <v>101151</v>
+        <v>113275.0629</v>
       </c>
       <c r="G29" t="n">
-        <v>13535254.4377</v>
+        <v>15974291.3952</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3373</v>
+        <v>0.3319</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3373</v>
+        <v>0.3319</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3373</v>
+        <v>0.3319</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3373</v>
+        <v>0.3319</v>
       </c>
       <c r="F30" t="n">
-        <v>29646</v>
+        <v>48423.1082</v>
       </c>
       <c r="G30" t="n">
-        <v>13564900.4377</v>
+        <v>15925868.287</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3323</v>
+        <v>0.3319</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3323</v>
+        <v>0.3319</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3323</v>
+        <v>0.3319</v>
       </c>
       <c r="E31" t="n">
-        <v>0.3323</v>
+        <v>0.3319</v>
       </c>
       <c r="F31" t="n">
-        <v>936297.231</v>
+        <v>79080.3363</v>
       </c>
       <c r="G31" t="n">
-        <v>12628603.2067</v>
+        <v>15925868.287</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>0.3323</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3319</v>
+        <v>0.3323</v>
       </c>
       <c r="D32" t="n">
         <v>0.3323</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3319</v>
+        <v>0.3323</v>
       </c>
       <c r="F32" t="n">
-        <v>5166830.349</v>
+        <v>9698.6476</v>
       </c>
       <c r="G32" t="n">
-        <v>7461772.857699997</v>
+        <v>15935566.9346</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3319</v>
+        <v>0.3355</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3318</v>
+        <v>0.3323</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3319</v>
+        <v>0.3355</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3318</v>
+        <v>0.3323</v>
       </c>
       <c r="F33" t="n">
-        <v>1750734.8031</v>
+        <v>1324357.4491</v>
       </c>
       <c r="G33" t="n">
-        <v>5711038.054599997</v>
+        <v>15935566.9346</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.332</v>
+        <v>0.3368</v>
       </c>
       <c r="C34" t="n">
-        <v>0.332</v>
+        <v>0.3368</v>
       </c>
       <c r="D34" t="n">
-        <v>0.332</v>
+        <v>0.3368</v>
       </c>
       <c r="E34" t="n">
-        <v>0.332</v>
+        <v>0.3368</v>
       </c>
       <c r="F34" t="n">
-        <v>1158878.1963</v>
+        <v>334186.4608</v>
       </c>
       <c r="G34" t="n">
-        <v>6869916.250899997</v>
+        <v>16269753.3954</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3321</v>
+        <v>0.3369</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3321</v>
+        <v>0.3369</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3321</v>
+        <v>0.3369</v>
       </c>
       <c r="E35" t="n">
-        <v>0.3321</v>
+        <v>0.3369</v>
       </c>
       <c r="F35" t="n">
-        <v>20311.0465</v>
+        <v>296823.9834</v>
       </c>
       <c r="G35" t="n">
-        <v>6890227.297399997</v>
+        <v>16566577.3788</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3319</v>
+        <v>0.3325</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3333</v>
+        <v>0.3325</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3333</v>
+        <v>0.3325</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3319</v>
+        <v>0.3325</v>
       </c>
       <c r="F36" t="n">
-        <v>180650</v>
+        <v>54845.7681</v>
       </c>
       <c r="G36" t="n">
-        <v>7070877.297399997</v>
+        <v>16511731.6107</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3331</v>
+        <v>0.337</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3331</v>
+        <v>0.337</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3331</v>
+        <v>0.337</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3331</v>
+        <v>0.337</v>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>8805</v>
       </c>
       <c r="G37" t="n">
-        <v>7066877.297399997</v>
+        <v>16520536.6107</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3319</v>
+        <v>0.337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3319</v>
+        <v>0.3381</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3319</v>
+        <v>0.3381</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3319</v>
+        <v>0.3325</v>
       </c>
       <c r="F38" t="n">
-        <v>183118.8018</v>
+        <v>185069.7032</v>
       </c>
       <c r="G38" t="n">
-        <v>6883758.495599997</v>
+        <v>16705606.3139</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3319</v>
+        <v>0.3381</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3318</v>
+        <v>0.3383</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3319</v>
+        <v>0.3383</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3318</v>
+        <v>0.3381</v>
       </c>
       <c r="F39" t="n">
-        <v>439257.713</v>
+        <v>60772.8695</v>
       </c>
       <c r="G39" t="n">
-        <v>6444500.782599997</v>
+        <v>16766379.1834</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3319</v>
+        <v>0.3383</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3319</v>
+        <v>0.3387</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3319</v>
+        <v>0.3387</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3319</v>
+        <v>0.3383</v>
       </c>
       <c r="F40" t="n">
-        <v>239772.9318</v>
+        <v>201301.9287</v>
       </c>
       <c r="G40" t="n">
-        <v>6684273.714399997</v>
+        <v>16967681.1121</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3319</v>
+        <v>0.3387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3319</v>
+        <v>0.3399</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3319</v>
+        <v>0.3399</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3319</v>
+        <v>0.3387</v>
       </c>
       <c r="F41" t="n">
-        <v>585326.3852</v>
+        <v>957988.377</v>
       </c>
       <c r="G41" t="n">
-        <v>6684273.714399997</v>
+        <v>17925669.4891</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3338</v>
+        <v>0.34</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3338</v>
+        <v>0.34</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3338</v>
+        <v>0.34</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3338</v>
+        <v>0.34</v>
       </c>
       <c r="F42" t="n">
-        <v>16641.70161773</v>
+        <v>100000</v>
       </c>
       <c r="G42" t="n">
-        <v>6700915.416017727</v>
+        <v>18025669.4891</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3331</v>
+        <v>0.34</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3331</v>
+        <v>0.34</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3331</v>
+        <v>0.34</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3331</v>
+        <v>0.34</v>
       </c>
       <c r="F43" t="n">
-        <v>1071773.064</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>5629142.352017727</v>
+        <v>18025669.4891</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3318</v>
+        <v>0.34</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3318</v>
+        <v>0.3402</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3318</v>
+        <v>0.3402</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3318</v>
+        <v>0.34</v>
       </c>
       <c r="F44" t="n">
-        <v>15687.9872</v>
+        <v>1466058.6042</v>
       </c>
       <c r="G44" t="n">
-        <v>5613454.364817726</v>
+        <v>19491728.0933</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3318</v>
+        <v>0.3396</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3318</v>
+        <v>0.3396</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3318</v>
+        <v>0.3396</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3318</v>
+        <v>0.3396</v>
       </c>
       <c r="F45" t="n">
-        <v>129513.9999</v>
+        <v>1000000</v>
       </c>
       <c r="G45" t="n">
-        <v>5613454.364817726</v>
+        <v>18491728.0933</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3318</v>
+        <v>0.3392</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3317</v>
+        <v>0.3392</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3318</v>
+        <v>0.3392</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3317</v>
+        <v>0.3392</v>
       </c>
       <c r="F46" t="n">
-        <v>2754550.8535</v>
+        <v>278595.2224</v>
       </c>
       <c r="G46" t="n">
-        <v>2858903.511317726</v>
+        <v>18213132.8709</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3317</v>
+        <v>0.3353</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3317</v>
+        <v>0.3353</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3317</v>
+        <v>0.3353</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3317</v>
+        <v>0.3353</v>
       </c>
       <c r="F47" t="n">
-        <v>4838481.0438</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>2858903.511317726</v>
+        <v>18203132.8709</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3357</v>
+        <v>0.3326</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3357</v>
+        <v>0.3326</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3357</v>
+        <v>0.3326</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3357</v>
+        <v>0.3326</v>
       </c>
       <c r="F48" t="n">
-        <v>4359.1349</v>
+        <v>73781.8783</v>
       </c>
       <c r="G48" t="n">
-        <v>2863262.646217726</v>
+        <v>18129350.9926</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3357</v>
+        <v>0.3354</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3357</v>
+        <v>0.3354</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3357</v>
+        <v>0.3354</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3357</v>
+        <v>0.3354</v>
       </c>
       <c r="F49" t="n">
-        <v>74284.79730000001</v>
+        <v>3712.2548</v>
       </c>
       <c r="G49" t="n">
-        <v>2863262.646217726</v>
+        <v>18133063.2474</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3357</v>
+        <v>0.3345</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3357</v>
+        <v>0.3345</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3357</v>
+        <v>0.3345</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3357</v>
+        <v>0.3345</v>
       </c>
       <c r="F50" t="n">
-        <v>1606.8259</v>
+        <v>4050895.8231</v>
       </c>
       <c r="G50" t="n">
-        <v>2863262.646217726</v>
+        <v>14082167.4243</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3326</v>
+        <v>0.3381</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3326</v>
+        <v>0.3381</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3326</v>
+        <v>0.3381</v>
       </c>
       <c r="E51" t="n">
-        <v>0.3326</v>
+        <v>0.3381</v>
       </c>
       <c r="F51" t="n">
-        <v>144019.54</v>
+        <v>1552</v>
       </c>
       <c r="G51" t="n">
-        <v>2719243.106217726</v>
+        <v>14083719.4243</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3326</v>
+        <v>0.333</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3325</v>
+        <v>0.3322</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3326</v>
+        <v>0.333</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3325</v>
+        <v>0.3322</v>
       </c>
       <c r="F52" t="n">
-        <v>2363486.4095</v>
+        <v>152841.174</v>
       </c>
       <c r="G52" t="n">
-        <v>355756.6967177261</v>
+        <v>13930878.2503</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3357</v>
+        <v>0.3381</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3357</v>
+        <v>0.3381</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3357</v>
+        <v>0.3381</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3357</v>
+        <v>0.3381</v>
       </c>
       <c r="F53" t="n">
-        <v>88573.9593</v>
+        <v>20120.5356</v>
       </c>
       <c r="G53" t="n">
-        <v>444330.6560177261</v>
+        <v>13950998.7859</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3357</v>
+        <v>0.3381</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3325</v>
+        <v>0.3381</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3357</v>
+        <v>0.3381</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3325</v>
+        <v>0.3381</v>
       </c>
       <c r="F54" t="n">
-        <v>92873.14169999999</v>
+        <v>295032.8998</v>
       </c>
       <c r="G54" t="n">
-        <v>351457.5143177261</v>
+        <v>13950998.7859</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.3326</v>
+        <v>0.3379</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3326</v>
+        <v>0.3323</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3326</v>
+        <v>0.3379</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3326</v>
+        <v>0.3323</v>
       </c>
       <c r="F55" t="n">
-        <v>522929.0081</v>
+        <v>307841.3879</v>
       </c>
       <c r="G55" t="n">
-        <v>874386.522417726</v>
+        <v>13643157.398</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3326</v>
+        <v>0.3379</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3326</v>
+        <v>0.3379</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3326</v>
+        <v>0.3379</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3326</v>
+        <v>0.3379</v>
       </c>
       <c r="F56" t="n">
-        <v>1670826.1169</v>
+        <v>1517</v>
       </c>
       <c r="G56" t="n">
-        <v>874386.522417726</v>
+        <v>13644674.398</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3344</v>
+        <v>0.3373</v>
       </c>
       <c r="C57" t="n">
-        <v>0.3344</v>
+        <v>0.3373</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3344</v>
+        <v>0.3373</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3344</v>
+        <v>0.3373</v>
       </c>
       <c r="F57" t="n">
-        <v>54945.055</v>
+        <v>8268.960300000001</v>
       </c>
       <c r="G57" t="n">
-        <v>929331.577417726</v>
+        <v>13636405.4377</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3341</v>
+        <v>0.3323</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3341</v>
+        <v>0.3323</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3341</v>
+        <v>0.3323</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3341</v>
+        <v>0.3323</v>
       </c>
       <c r="F58" t="n">
-        <v>14722.4575</v>
+        <v>101151</v>
       </c>
       <c r="G58" t="n">
-        <v>914609.119917726</v>
+        <v>13535254.4377</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3341</v>
+        <v>0.3373</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3341</v>
+        <v>0.3373</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3341</v>
+        <v>0.3373</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3341</v>
+        <v>0.3373</v>
       </c>
       <c r="F59" t="n">
-        <v>7063.8429</v>
+        <v>29646</v>
       </c>
       <c r="G59" t="n">
-        <v>914609.119917726</v>
+        <v>13564900.4377</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.3336</v>
+        <v>0.3323</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3336</v>
+        <v>0.3323</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3336</v>
+        <v>0.3323</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3336</v>
+        <v>0.3323</v>
       </c>
       <c r="F60" t="n">
-        <v>5684.3502</v>
+        <v>936297.231</v>
       </c>
       <c r="G60" t="n">
-        <v>908924.769717726</v>
+        <v>12628603.2067</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.3325</v>
+        <v>0.3323</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3325</v>
+        <v>0.3319</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3325</v>
+        <v>0.3323</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3325</v>
+        <v>0.3319</v>
       </c>
       <c r="F61" t="n">
-        <v>2946319.2329</v>
+        <v>5166830.349</v>
       </c>
       <c r="G61" t="n">
-        <v>-2037394.463182274</v>
+        <v>7461772.857699997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3324</v>
+        <v>0.3319</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3323</v>
+        <v>0.3318</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3324</v>
+        <v>0.3319</v>
       </c>
       <c r="E62" t="n">
-        <v>0.3323</v>
+        <v>0.3318</v>
       </c>
       <c r="F62" t="n">
-        <v>1367844.1394</v>
+        <v>1750734.8031</v>
       </c>
       <c r="G62" t="n">
-        <v>-3405238.602582274</v>
+        <v>5711038.054599997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3322</v>
+        <v>0.332</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3321</v>
+        <v>0.332</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3322</v>
+        <v>0.332</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3321</v>
+        <v>0.332</v>
       </c>
       <c r="F63" t="n">
-        <v>1234038.9999</v>
+        <v>1158878.1963</v>
       </c>
       <c r="G63" t="n">
-        <v>-4639277.602482274</v>
+        <v>6869916.250899997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2673,19 +2673,19 @@
         <v>0.3321</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3319</v>
+        <v>0.3321</v>
       </c>
       <c r="D64" t="n">
         <v>0.3321</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3319</v>
+        <v>0.3321</v>
       </c>
       <c r="F64" t="n">
-        <v>2936525.7285</v>
+        <v>20311.0465</v>
       </c>
       <c r="G64" t="n">
-        <v>-7575803.330982274</v>
+        <v>6890227.297399997</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2709,19 +2709,19 @@
         <v>0.3319</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3317</v>
+        <v>0.3333</v>
       </c>
       <c r="D65" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.3319</v>
       </c>
-      <c r="E65" t="n">
-        <v>0.3317</v>
-      </c>
       <c r="F65" t="n">
-        <v>2216346.4358</v>
+        <v>180650</v>
       </c>
       <c r="G65" t="n">
-        <v>-9792149.766782274</v>
+        <v>7070877.297399997</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3317</v>
+        <v>0.3331</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3317</v>
+        <v>0.3331</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3317</v>
+        <v>0.3331</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3317</v>
+        <v>0.3331</v>
       </c>
       <c r="F66" t="n">
-        <v>647355.2343</v>
+        <v>4000</v>
       </c>
       <c r="G66" t="n">
-        <v>-9792149.766782274</v>
+        <v>7066877.297399997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="F67" t="n">
-        <v>2411109.68</v>
+        <v>183118.8018</v>
       </c>
       <c r="G67" t="n">
-        <v>-9792149.766782274</v>
+        <v>6883758.495599997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.3318</v>
+        <v>0.3319</v>
       </c>
       <c r="C68" t="n">
         <v>0.3318</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3318</v>
+        <v>0.3319</v>
       </c>
       <c r="E68" t="n">
         <v>0.3318</v>
       </c>
       <c r="F68" t="n">
-        <v>14945.9551</v>
+        <v>439257.713</v>
       </c>
       <c r="G68" t="n">
-        <v>-9777203.811682275</v>
+        <v>6444500.782599997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3318</v>
+        <v>0.3319</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3318</v>
+        <v>0.3319</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="F69" t="n">
-        <v>3676400.814</v>
+        <v>239772.9318</v>
       </c>
       <c r="G69" t="n">
-        <v>-13453604.62568227</v>
+        <v>6684273.714399997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3318</v>
+        <v>0.3319</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3318</v>
+        <v>0.3319</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3317</v>
+        <v>0.3319</v>
       </c>
       <c r="F70" t="n">
-        <v>1208048.3812</v>
+        <v>585326.3852</v>
       </c>
       <c r="G70" t="n">
-        <v>-13453604.62568227</v>
+        <v>6684273.714399997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.3317</v>
+        <v>0.3338</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3316</v>
+        <v>0.3338</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3317</v>
+        <v>0.3338</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3316</v>
+        <v>0.3338</v>
       </c>
       <c r="F71" t="n">
-        <v>197615</v>
+        <v>16641.70161773</v>
       </c>
       <c r="G71" t="n">
-        <v>-13651219.62568227</v>
+        <v>6700915.416017727</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3326</v>
+        <v>0.3331</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3326</v>
+        <v>0.3331</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3326</v>
+        <v>0.3331</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3326</v>
+        <v>0.3331</v>
       </c>
       <c r="F72" t="n">
-        <v>2000</v>
+        <v>1071773.064</v>
       </c>
       <c r="G72" t="n">
-        <v>-13649219.62568227</v>
+        <v>5629142.352017727</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3317</v>
+        <v>0.3318</v>
       </c>
       <c r="C73" t="n">
-        <v>0.3316</v>
+        <v>0.3318</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3317</v>
+        <v>0.3318</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3316</v>
+        <v>0.3318</v>
       </c>
       <c r="F73" t="n">
-        <v>544429.7634000001</v>
+        <v>15687.9872</v>
       </c>
       <c r="G73" t="n">
-        <v>-14193649.38908227</v>
+        <v>5613454.364817726</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3317</v>
+        <v>0.3318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.3316</v>
+        <v>0.3318</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3317</v>
+        <v>0.3318</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3316</v>
+        <v>0.3318</v>
       </c>
       <c r="F74" t="n">
-        <v>1071773.064</v>
+        <v>129513.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>-14193649.38908227</v>
+        <v>5613454.364817726</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3336</v>
+        <v>0.3318</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3336</v>
+        <v>0.3317</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3336</v>
+        <v>0.3318</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3336</v>
+        <v>0.3317</v>
       </c>
       <c r="F75" t="n">
-        <v>17941.3277</v>
+        <v>2754550.8535</v>
       </c>
       <c r="G75" t="n">
-        <v>-14175708.06138227</v>
+        <v>2858903.511317726</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.3341</v>
+        <v>0.3317</v>
       </c>
       <c r="C76" t="n">
-        <v>0.3341</v>
+        <v>0.3317</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3341</v>
+        <v>0.3317</v>
       </c>
       <c r="E76" t="n">
-        <v>0.3341</v>
+        <v>0.3317</v>
       </c>
       <c r="F76" t="n">
-        <v>4000</v>
+        <v>4838481.0438</v>
       </c>
       <c r="G76" t="n">
-        <v>-14171708.06138227</v>
+        <v>2858903.511317726</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3341</v>
+        <v>0.3357</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3341</v>
+        <v>0.3357</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3341</v>
+        <v>0.3357</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3341</v>
+        <v>0.3357</v>
       </c>
       <c r="F77" t="n">
-        <v>3378593.7431</v>
+        <v>4359.1349</v>
       </c>
       <c r="G77" t="n">
-        <v>-14171708.06138227</v>
+        <v>2863262.646217726</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3358</v>
+        <v>0.3357</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3498</v>
+        <v>0.3357</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3498</v>
+        <v>0.3357</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3358</v>
+        <v>0.3357</v>
       </c>
       <c r="F78" t="n">
-        <v>35624632.01866946</v>
+        <v>74284.79730000001</v>
       </c>
       <c r="G78" t="n">
-        <v>21452923.95728719</v>
+        <v>2863262.646217726</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.34</v>
+        <v>0.3357</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3356</v>
+        <v>0.3357</v>
       </c>
       <c r="D79" t="n">
-        <v>0.34</v>
+        <v>0.3357</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3356</v>
+        <v>0.3357</v>
       </c>
       <c r="F79" t="n">
-        <v>3580306.4507</v>
+        <v>1606.8259</v>
       </c>
       <c r="G79" t="n">
-        <v>17872617.50658719</v>
+        <v>2863262.646217726</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3399</v>
+        <v>0.3326</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3399</v>
+        <v>0.3326</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3399</v>
+        <v>0.3326</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3399</v>
+        <v>0.3326</v>
       </c>
       <c r="F80" t="n">
-        <v>2000</v>
+        <v>144019.54</v>
       </c>
       <c r="G80" t="n">
-        <v>17874617.50658719</v>
+        <v>2719243.106217726</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3361</v>
+        <v>0.3326</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3359</v>
+        <v>0.3325</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3361</v>
+        <v>0.3326</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3359</v>
+        <v>0.3325</v>
       </c>
       <c r="F81" t="n">
-        <v>7116901.4259</v>
+        <v>2363486.4095</v>
       </c>
       <c r="G81" t="n">
-        <v>10757716.08068719</v>
+        <v>355756.6967177261</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3399</v>
+        <v>0.3357</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3399</v>
+        <v>0.3357</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3399</v>
+        <v>0.3357</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3399</v>
+        <v>0.3357</v>
       </c>
       <c r="F82" t="n">
-        <v>14652.5712</v>
+        <v>88573.9593</v>
       </c>
       <c r="G82" t="n">
-        <v>10772368.65188719</v>
+        <v>444330.6560177261</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3399</v>
+        <v>0.3357</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3399</v>
+        <v>0.3325</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3399</v>
+        <v>0.3357</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3399</v>
+        <v>0.3325</v>
       </c>
       <c r="F83" t="n">
-        <v>599685.20152986</v>
+        <v>92873.14169999999</v>
       </c>
       <c r="G83" t="n">
-        <v>10772368.65188719</v>
+        <v>351457.5143177261</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="F84" t="n">
-        <v>172143</v>
+        <v>522929.0081</v>
       </c>
       <c r="G84" t="n">
-        <v>10600225.65188719</v>
+        <v>874386.522417726</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3351</v>
+        <v>0.3326</v>
       </c>
       <c r="F85" t="n">
-        <v>2160308.1162</v>
+        <v>1670826.1169</v>
       </c>
       <c r="G85" t="n">
-        <v>10600225.65188719</v>
+        <v>874386.522417726</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3399</v>
+        <v>0.3344</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3399</v>
+        <v>0.3344</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3399</v>
+        <v>0.3344</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3399</v>
+        <v>0.3344</v>
       </c>
       <c r="F86" t="n">
-        <v>2000</v>
+        <v>54945.055</v>
       </c>
       <c r="G86" t="n">
-        <v>10602225.65188719</v>
+        <v>929331.577417726</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="F87" t="n">
-        <v>50000</v>
+        <v>14722.4575</v>
       </c>
       <c r="G87" t="n">
-        <v>10602225.65188719</v>
+        <v>914609.119917726</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3399</v>
+        <v>0.3341</v>
       </c>
       <c r="F88" t="n">
-        <v>2200</v>
+        <v>7063.8429</v>
       </c>
       <c r="G88" t="n">
-        <v>10602225.65188719</v>
+        <v>914609.119917726</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3352</v>
+        <v>0.3336</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3352</v>
+        <v>0.3336</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3352</v>
+        <v>0.3336</v>
       </c>
       <c r="E89" t="n">
-        <v>0.3352</v>
+        <v>0.3336</v>
       </c>
       <c r="F89" t="n">
-        <v>71319.61259999999</v>
+        <v>5684.3502</v>
       </c>
       <c r="G89" t="n">
-        <v>10530906.03928719</v>
+        <v>908924.769717726</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3328</v>
+        <v>0.3325</v>
       </c>
       <c r="C90" t="n">
-        <v>0.3328</v>
+        <v>0.3325</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3328</v>
+        <v>0.3325</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3328</v>
+        <v>0.3325</v>
       </c>
       <c r="F90" t="n">
-        <v>246332.2172</v>
+        <v>2946319.2329</v>
       </c>
       <c r="G90" t="n">
-        <v>10284573.82208719</v>
+        <v>-2037394.463182274</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.3328</v>
+        <v>0.3324</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3352</v>
+        <v>0.3323</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3352</v>
+        <v>0.3324</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3325</v>
+        <v>0.3323</v>
       </c>
       <c r="F91" t="n">
-        <v>2774942.866</v>
+        <v>1367844.1394</v>
       </c>
       <c r="G91" t="n">
-        <v>13059516.68808719</v>
+        <v>-3405238.602582274</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3352</v>
+        <v>0.3322</v>
       </c>
       <c r="C92" t="n">
-        <v>0.3323</v>
+        <v>0.3321</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3352</v>
+        <v>0.3322</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3323</v>
+        <v>0.3321</v>
       </c>
       <c r="F92" t="n">
-        <v>2709494.7462</v>
+        <v>1234038.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>10350021.94188719</v>
+        <v>-4639277.602482274</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3322</v>
+        <v>0.3321</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3322</v>
+        <v>0.3319</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3322</v>
+        <v>0.3321</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3322</v>
+        <v>0.3319</v>
       </c>
       <c r="F93" t="n">
-        <v>60204.696</v>
+        <v>2936525.7285</v>
       </c>
       <c r="G93" t="n">
-        <v>10289817.24588719</v>
+        <v>-7575803.330982274</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3321</v>
+        <v>0.3319</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3321</v>
+        <v>0.3319</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="F94" t="n">
-        <v>60222.8245</v>
+        <v>2216346.4358</v>
       </c>
       <c r="G94" t="n">
-        <v>10229594.42138719</v>
+        <v>-9792149.766782274</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.332</v>
+        <v>0.3317</v>
       </c>
       <c r="C95" t="n">
-        <v>0.332</v>
+        <v>0.3317</v>
       </c>
       <c r="D95" t="n">
-        <v>0.332</v>
+        <v>0.3317</v>
       </c>
       <c r="E95" t="n">
-        <v>0.332</v>
+        <v>0.3317</v>
       </c>
       <c r="F95" t="n">
-        <v>93570.9639</v>
+        <v>647355.2343</v>
       </c>
       <c r="G95" t="n">
-        <v>10136023.45748719</v>
+        <v>-9792149.766782274</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3319</v>
+        <v>0.3317</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3313</v>
+        <v>0.3317</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3319</v>
+        <v>0.3317</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3313</v>
+        <v>0.3317</v>
       </c>
       <c r="F96" t="n">
-        <v>4996278.2615</v>
+        <v>2411109.68</v>
       </c>
       <c r="G96" t="n">
-        <v>5139745.195987192</v>
+        <v>-9792149.766782274</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3312</v>
+        <v>0.3318</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3312</v>
+        <v>0.3318</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3312</v>
+        <v>0.3318</v>
       </c>
       <c r="E97" t="n">
-        <v>0.3312</v>
+        <v>0.3318</v>
       </c>
       <c r="F97" t="n">
-        <v>7379012.7942</v>
+        <v>14945.9551</v>
       </c>
       <c r="G97" t="n">
-        <v>-2239267.598212808</v>
+        <v>-9777203.811682275</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3321</v>
+        <v>0.3318</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3321</v>
+        <v>0.3318</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="F98" t="n">
-        <v>300360.5139</v>
+        <v>3676400.814</v>
       </c>
       <c r="G98" t="n">
-        <v>-1938907.084312808</v>
+        <v>-13453604.62568227</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3311</v>
+        <v>0.3318</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3311</v>
+        <v>0.3317</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3311</v>
+        <v>0.3318</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3311</v>
+        <v>0.3317</v>
       </c>
       <c r="F99" t="n">
-        <v>7239.4529</v>
+        <v>1208048.3812</v>
       </c>
       <c r="G99" t="n">
-        <v>-1946146.537212808</v>
+        <v>-13453604.62568227</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3301</v>
+        <v>0.3316</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3301</v>
+        <v>0.3316</v>
       </c>
       <c r="F100" t="n">
-        <v>605770.0327</v>
+        <v>197615</v>
       </c>
       <c r="G100" t="n">
-        <v>-2551916.569912808</v>
+        <v>-13651219.62568227</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3321</v>
+        <v>0.3326</v>
       </c>
       <c r="C101" t="n">
-        <v>0.3321</v>
+        <v>0.3326</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3321</v>
+        <v>0.3326</v>
       </c>
       <c r="E101" t="n">
-        <v>0.3321</v>
+        <v>0.3326</v>
       </c>
       <c r="F101" t="n">
-        <v>4409.6616</v>
+        <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>-2547506.908312808</v>
+        <v>-13649219.62568227</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -4026,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3301</v>
+        <v>0.3316</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3301</v>
+        <v>0.3316</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
@@ -4042,22 +4042,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="E102" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="F102" t="n">
-        <v>5590.3384</v>
+        <v>544429.7634000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-2547506.908312808</v>
+        <v>-14193649.38908227</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>0.3301</v>
+        <v>0.3316</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -4084,36 +4084,38 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3321</v>
+        <v>0.3317</v>
       </c>
       <c r="E103" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="F103" t="n">
-        <v>4409.6616</v>
+        <v>1071773.064</v>
       </c>
       <c r="G103" t="n">
-        <v>-2547506.908312808</v>
+        <v>-14193649.38908227</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K103" t="n">
-        <v>0.3301</v>
+        <v>0.3316</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
@@ -4126,22 +4128,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3321</v>
+        <v>0.3336</v>
       </c>
       <c r="C104" t="n">
-        <v>0.3321</v>
+        <v>0.3336</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3321</v>
+        <v>0.3336</v>
       </c>
       <c r="E104" t="n">
-        <v>0.3321</v>
+        <v>0.3336</v>
       </c>
       <c r="F104" t="n">
-        <v>29221.2109</v>
+        <v>17941.3277</v>
       </c>
       <c r="G104" t="n">
-        <v>-2547506.908312808</v>
+        <v>-14175708.06138227</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4150,12 +4152,16 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="K104" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
+        <v>0.3316</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4166,36 +4172,38 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3321</v>
+        <v>0.3341</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3321</v>
+        <v>0.3341</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3321</v>
+        <v>0.3341</v>
       </c>
       <c r="E105" t="n">
-        <v>0.3321</v>
+        <v>0.3341</v>
       </c>
       <c r="F105" t="n">
-        <v>281389.0932</v>
+        <v>4000</v>
       </c>
       <c r="G105" t="n">
-        <v>-2547506.908312808</v>
+        <v>-14171708.06138227</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0.3336</v>
+      </c>
       <c r="K105" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
@@ -4208,36 +4216,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.3308</v>
+        <v>0.3341</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3307</v>
+        <v>0.3341</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3308</v>
+        <v>0.3341</v>
       </c>
       <c r="E106" t="n">
-        <v>0.3307</v>
+        <v>0.3341</v>
       </c>
       <c r="F106" t="n">
-        <v>6556940.6096</v>
+        <v>3378593.7431</v>
       </c>
       <c r="G106" t="n">
-        <v>-9104447.517912809</v>
+        <v>-14171708.06138227</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0.3341</v>
+      </c>
       <c r="K106" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4250,22 +4260,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.3307</v>
+        <v>0.3358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.3295</v>
+        <v>0.3498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3307</v>
+        <v>0.3498</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3295</v>
+        <v>0.3358</v>
       </c>
       <c r="F107" t="n">
-        <v>3701807.3117</v>
+        <v>35624632.01866946</v>
       </c>
       <c r="G107" t="n">
-        <v>-12806254.82961281</v>
+        <v>21452923.95728719</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -4274,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>0.3307</v>
+        <v>0.3341</v>
       </c>
       <c r="K107" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4294,22 +4304,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3295</v>
+        <v>0.34</v>
       </c>
       <c r="C108" t="n">
-        <v>0.3295</v>
+        <v>0.3356</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3295</v>
+        <v>0.34</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3295</v>
+        <v>0.3356</v>
       </c>
       <c r="F108" t="n">
-        <v>48387</v>
+        <v>3580306.4507</v>
       </c>
       <c r="G108" t="n">
-        <v>-12806254.82961281</v>
+        <v>17872617.50658719</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4319,7 +4329,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>0.3321</v>
+        <v>0.3316</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4331,6 +4341,1232 @@
       </c>
       <c r="N108" t="inlineStr"/>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17874617.50658719</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7116901.4259</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10757716.08068719</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14652.5712</v>
+      </c>
+      <c r="G111" t="n">
+        <v>10772368.65188719</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F112" t="n">
+        <v>599685.20152986</v>
+      </c>
+      <c r="G112" t="n">
+        <v>10772368.65188719</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="F113" t="n">
+        <v>172143</v>
+      </c>
+      <c r="G113" t="n">
+        <v>10600225.65188719</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2160308.1162</v>
+      </c>
+      <c r="G114" t="n">
+        <v>10600225.65188719</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>10602225.65188719</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10602225.65188719</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10602225.65188719</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="F118" t="n">
+        <v>71319.61259999999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10530906.03928719</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="F119" t="n">
+        <v>246332.2172</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10284573.82208719</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2774942.866</v>
+      </c>
+      <c r="G120" t="n">
+        <v>13059516.68808719</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2709494.7462</v>
+      </c>
+      <c r="G121" t="n">
+        <v>10350021.94188719</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="F122" t="n">
+        <v>60204.696</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10289817.24588719</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F123" t="n">
+        <v>60222.8245</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10229594.42138719</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F124" t="n">
+        <v>93570.9639</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10136023.45748719</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.3313</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.3313</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4996278.2615</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5139745.195987192</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7379012.7942</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2239267.598212808</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F127" t="n">
+        <v>300360.5139</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1938907.084312808</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7239.4529</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1946146.537212808</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="F129" t="n">
+        <v>605770.0327</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2551916.569912808</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4409.6616</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2547506.908312808</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5590.3384</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2547506.908312808</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4409.6616</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2547506.908312808</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F133" t="n">
+        <v>29221.2109</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2547506.908312808</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F134" t="n">
+        <v>281389.0932</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2547506.908312808</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6556940.6096</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-9104447.517912809</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3701807.3117</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-12806254.82961281</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="F137" t="n">
+        <v>48387</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-12806254.82961281</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>14615387.8716</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>14615387.8716</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>14615387.8716</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>14733993.8485</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>14809061.5193</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>14809061.5193</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>14791422.4397</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>14633737.4397</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,15 @@
         <v>14663227.2658</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>14663227.2658</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>14633287.146</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>14636287.146</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>14639287.146</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>13713793.5751</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>13646977.3028</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>11737610.1735</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>13011028.0955</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>15974291.3952</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>15935566.9346</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>16511731.6107</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>18491728.0933</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,22 +3718,19 @@
         <v>-13649219.62568227</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.3316</v>
       </c>
       <c r="J101" t="n">
         <v>0.3316</v>
       </c>
-      <c r="K101" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4062,22 +3757,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4102,26 +3794,23 @@
         <v>-14193649.38908227</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.3316</v>
       </c>
       <c r="J103" t="n">
         <v>0.3316</v>
       </c>
-      <c r="K103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,26 +3835,21 @@
         <v>-14175708.06138227</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>0.3316</v>
       </c>
-      <c r="K104" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4190,26 +3874,21 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="K105" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4234,26 +3913,21 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="K106" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4278,26 +3952,21 @@
         <v>21452923.95728719</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="K107" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4322,24 +3991,21 @@
         <v>17872617.50658719</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4366,22 +4032,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4408,22 +4071,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4450,22 +4110,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4492,22 +4149,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4534,22 +4188,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4576,22 +4227,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4616,24 +4264,23 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="J115" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4660,22 +4307,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4702,22 +4346,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4744,22 +4385,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4786,22 +4424,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4828,22 +4463,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4870,22 +4502,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4912,22 +4541,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4954,22 +4580,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4996,22 +4619,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5038,22 +4658,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5080,22 +4697,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5120,24 +4734,23 @@
         <v>-1938907.084312808</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="J127" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5164,22 +4777,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5206,22 +4816,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5248,22 +4855,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5290,22 +4894,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5332,22 +4933,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5374,22 +4972,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5414,26 +5009,21 @@
         <v>-2547506.908312808</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="K134" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5458,26 +5048,21 @@
         <v>-9104447.517912809</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="K135" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5502,26 +5087,21 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>0.3307</v>
-      </c>
-      <c r="K136" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5546,28 +5126,23 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>0.3295</v>
-      </c>
-      <c r="K137" t="n">
         <v>0.3316</v>
       </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14733993.8485</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14795832.167</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>14791422.4397</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>14633737.4397</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>14663227.2658</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>14663227.2658</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>14633287.146</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>14636287.146</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>14639287.146</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>14609970.2301</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>13713793.5751</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>13646977.3028</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>13602462.5771</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>13470613.7945</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>11814908.4703</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>11818908.4703</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>11735441.5343</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>11737610.1735</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>11335251.1735</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>12787697.1735</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>13011028.0955</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>15974291.3952</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>15974291.3952</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>15925868.287</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>15925868.287</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>15935566.9346</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>15935566.9346</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>16269753.3954</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>16511731.6107</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>18491728.0933</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -3718,14 +3718,10 @@
         <v>-13649219.62568227</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.3316</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3758,1073 +3754,937 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3317</v>
+      </c>
+      <c r="C103" t="n">
         <v>0.3316</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="D103" t="n">
+        <v>0.3317</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1071773.064</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-14193649.38908227</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17941.3277</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-14175708.06138227</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="F105" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-14171708.06138227</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3378593.7431</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-14171708.06138227</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="F107" t="n">
+        <v>35624632.01866946</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21452923.95728719</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3356</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.3356</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3580306.4507</v>
+      </c>
+      <c r="G108" t="n">
+        <v>17872617.50658719</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G109" t="n">
+        <v>17874617.50658719</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="F110" t="n">
+        <v>7116901.4259</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10757716.08068719</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14652.5712</v>
+      </c>
+      <c r="G111" t="n">
+        <v>10772368.65188719</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F112" t="n">
+        <v>599685.20152986</v>
+      </c>
+      <c r="G112" t="n">
+        <v>10772368.65188719</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="F113" t="n">
+        <v>172143</v>
+      </c>
+      <c r="G113" t="n">
+        <v>10600225.65188719</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.3351</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2160308.1162</v>
+      </c>
+      <c r="G114" t="n">
+        <v>10600225.65188719</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>10602225.65188719</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F116" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>10602225.65188719</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.3399</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G117" t="n">
+        <v>10602225.65188719</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="F118" t="n">
+        <v>71319.61259999999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>10530906.03928719</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="F119" t="n">
+        <v>246332.2172</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10284573.82208719</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2774942.866</v>
+      </c>
+      <c r="G120" t="n">
+        <v>13059516.68808719</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.3352</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2709494.7462</v>
+      </c>
+      <c r="G121" t="n">
+        <v>10350021.94188719</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="F122" t="n">
+        <v>60204.696</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10289817.24588719</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F123" t="n">
+        <v>60222.8245</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10229594.42138719</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="F124" t="n">
+        <v>93570.9639</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10136023.45748719</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.3313</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.3313</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4996278.2615</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5139745.195987192</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7379012.7942</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2239267.598212808</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="F127" t="n">
+        <v>300360.5139</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1938907.084312808</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="F128" t="n">
+        <v>7239.4529</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1946146.537212808</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.3321</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="F129" t="n">
+        <v>605770.0327</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2551916.569912808</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.3317</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.3317</v>
-      </c>
-      <c r="E103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1071773.064</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-14193649.38908227</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="F104" t="n">
-        <v>17941.3277</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-14175708.06138227</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-14171708.06138227</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3378593.7431</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-14171708.06138227</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.3358</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.3498</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.3498</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0.3358</v>
-      </c>
-      <c r="F107" t="n">
-        <v>35624632.01866946</v>
-      </c>
-      <c r="G107" t="n">
-        <v>21452923.95728719</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.3356</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0.3356</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3580306.4507</v>
-      </c>
-      <c r="G108" t="n">
-        <v>17872617.50658719</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G109" t="n">
-        <v>17874617.50658719</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.3361</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.3359</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.3361</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.3359</v>
-      </c>
-      <c r="F110" t="n">
-        <v>7116901.4259</v>
-      </c>
-      <c r="G110" t="n">
-        <v>10757716.08068719</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F111" t="n">
-        <v>14652.5712</v>
-      </c>
-      <c r="G111" t="n">
-        <v>10772368.65188719</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F112" t="n">
-        <v>599685.20152986</v>
-      </c>
-      <c r="G112" t="n">
-        <v>10772368.65188719</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="F113" t="n">
-        <v>172143</v>
-      </c>
-      <c r="G113" t="n">
-        <v>10600225.65188719</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="F114" t="n">
-        <v>2160308.1162</v>
-      </c>
-      <c r="G114" t="n">
-        <v>10600225.65188719</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>10602225.65188719</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.3351</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F116" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G116" t="n">
-        <v>10602225.65188719</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.3399</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G117" t="n">
-        <v>10602225.65188719</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="F118" t="n">
-        <v>71319.61259999999</v>
-      </c>
-      <c r="G118" t="n">
-        <v>10530906.03928719</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="F119" t="n">
-        <v>246332.2172</v>
-      </c>
-      <c r="G119" t="n">
-        <v>10284573.82208719</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.3328</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.3325</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2774942.866</v>
-      </c>
-      <c r="G120" t="n">
-        <v>13059516.68808719</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.3323</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.3323</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2709494.7462</v>
-      </c>
-      <c r="G121" t="n">
-        <v>10350021.94188719</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.3322</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.3322</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.3322</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.3322</v>
-      </c>
-      <c r="F122" t="n">
-        <v>60204.696</v>
-      </c>
-      <c r="G122" t="n">
-        <v>10289817.24588719</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="F123" t="n">
-        <v>60222.8245</v>
-      </c>
-      <c r="G123" t="n">
-        <v>10229594.42138719</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.332</v>
-      </c>
-      <c r="F124" t="n">
-        <v>93570.9639</v>
-      </c>
-      <c r="G124" t="n">
-        <v>10136023.45748719</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.3319</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.3313</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.3319</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.3313</v>
-      </c>
-      <c r="F125" t="n">
-        <v>4996278.2615</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5139745.195987192</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="F126" t="n">
-        <v>7379012.7942</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-2239267.598212808</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="C127" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="F127" t="n">
-        <v>300360.5139</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1938907.084312808</v>
-      </c>
-      <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.3311</v>
-      </c>
-      <c r="C128" t="n">
-        <v>0.3311</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0.3311</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.3311</v>
-      </c>
-      <c r="F128" t="n">
-        <v>7239.4529</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1946146.537212808</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="C129" t="n">
-        <v>0.3301</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.3301</v>
-      </c>
-      <c r="F129" t="n">
-        <v>605770.0327</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2551916.569912808</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4853,11 +4713,13 @@
         <v>-2547506.908312808</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.3301</v>
+      </c>
       <c r="J130" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4896,7 +4758,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4935,7 +4797,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4974,7 +4836,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5009,11 +4871,13 @@
         <v>-2547506.908312808</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.3321</v>
+      </c>
       <c r="J134" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5048,11 +4912,13 @@
         <v>-9104447.517912809</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.3321</v>
+      </c>
       <c r="J135" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5087,11 +4953,13 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.3307</v>
+      </c>
       <c r="J136" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5126,11 +4994,13 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.3295</v>
+      </c>
       <c r="J137" t="n">
-        <v>0.3316</v>
+        <v>0.3312</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5143,6 +5013,6 @@
       <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14733993.8485</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14795832.167</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>14636287.146</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>14639287.146</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>14609970.2301</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>13713793.5751</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>13646977.3028</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>13602462.5771</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>13470613.7945</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>11814908.4703</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>11818908.4703</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>11735441.5343</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>11737610.1735</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>11335251.1735</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>12787697.1735</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>13011028.0955</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>15974291.3952</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>15974291.3952</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>15925868.287</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>15925868.287</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>15935566.9346</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>15935566.9346</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,10 +1507,14 @@
         <v>16269753.3954</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3323</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1543,8 +1547,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1586,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0.3323</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -2992,7 +3008,7 @@
         <v>2863262.646217726</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>2719243.106217726</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>355756.6967177261</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3107,7 @@
         <v>444330.6560177261</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3140,7 @@
         <v>351457.5143177261</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3173,7 @@
         <v>874386.522417726</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3784,11 +3800,17 @@
         <v>-14193649.38908227</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3839,17 @@
         <v>-14175708.06138227</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,15 +3878,15 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,17 +3915,13 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.3336</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L106" t="n">
@@ -3931,12 +3955,10 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>0.3336</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L107" t="n">
@@ -3971,7 +3993,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4004,7 +4030,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4063,15 @@
         <v>10757716.08068719</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +4100,15 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +4137,15 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +4174,15 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +4211,16 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4198,7 +4246,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4231,7 +4279,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4264,7 +4312,7 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4297,7 +4345,7 @@
         <v>10530906.03928719</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4330,7 +4378,7 @@
         <v>10284573.82208719</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4594,14 +4642,10 @@
         <v>-1938907.084312808</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.3312</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4631,19 +4675,11 @@
         <v>-1946146.537212808</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4672,19 +4708,11 @@
         <v>-2551916.569912808</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.3311</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4713,19 +4741,11 @@
         <v>-2547506.908312808</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.3301</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4757,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4796,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4835,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4871,19 +4873,11 @@
         <v>-2547506.908312808</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4912,19 +4906,11 @@
         <v>-9104447.517912809</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.3321</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4953,19 +4939,11 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.3307</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4994,25 +4972,17 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.3295</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.3312</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -451,7 +451,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14615387.8716</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14733993.8485</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>14809061.5193</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14795832.167</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>14636287.146</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>14609970.2301</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>13713793.5751</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>13646977.3028</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1507,14 +1507,10 @@
         <v>16269753.3954</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.3323</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.3323</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
@@ -1547,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0.3323</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1586,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>0.3323</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -3008,7 +2992,7 @@
         <v>2863262.646217726</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3041,7 +3025,7 @@
         <v>2719243.106217726</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3058,7 @@
         <v>355756.6967177261</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3107,7 +3091,7 @@
         <v>444330.6560177261</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3140,7 +3124,7 @@
         <v>351457.5143177261</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3173,7 +3157,7 @@
         <v>874386.522417726</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3734,10 +3718,14 @@
         <v>-13649219.62568227</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3767,11 +3755,19 @@
         <v>-14193649.38908227</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +3801,12 @@
       <c r="I103" t="n">
         <v>0.3316</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
@@ -3844,7 +3842,9 @@
       <c r="I104" t="n">
         <v>0.3316</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3878,10 +3878,14 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,10 +3919,14 @@
         <v>-14171708.06138227</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,10 +3960,14 @@
         <v>21452923.95728719</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4029,7 +4043,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4063,10 +4079,12 @@
         <v>10757716.08068719</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4100,10 +4118,12 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,10 +4157,12 @@
         <v>10772368.65188719</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4174,10 +4196,12 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4211,16 +4235,20 @@
         <v>10600225.65188719</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0.3316</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
       <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
@@ -4246,11 +4274,17 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4313,17 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4352,17 @@
         <v>10602225.65188719</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4391,17 @@
         <v>10530906.03928719</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4430,17 @@
         <v>10284573.82208719</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4511,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4589,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4628,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4706,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4745,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4823,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4901,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +4979,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5132,19 @@
         <v>-12806254.82961281</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest BTT.xlsx
+++ b/BackTest/2020-01-12 BackTest BTT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:L137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>10961</v>
       </c>
       <c r="G2" t="n">
-        <v>14615387.8716</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>5758</v>
       </c>
       <c r="G3" t="n">
-        <v>14615387.8716</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>20182.2727</v>
       </c>
       <c r="G4" t="n">
-        <v>14615387.8716</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>118605.9769</v>
       </c>
       <c r="G5" t="n">
-        <v>14733993.8485</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>75067.67080000001</v>
       </c>
       <c r="G6" t="n">
-        <v>14809061.5193</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>13813</v>
       </c>
       <c r="G7" t="n">
-        <v>14809061.5193</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>13229.3523</v>
       </c>
       <c r="G8" t="n">
-        <v>14795832.167</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>4409.7273</v>
       </c>
       <c r="G9" t="n">
-        <v>14791422.4397</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>157685</v>
       </c>
       <c r="G10" t="n">
-        <v>14633737.4397</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>29489.8261</v>
       </c>
       <c r="G11" t="n">
-        <v>14663227.2658</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>88417.33500000001</v>
       </c>
       <c r="G12" t="n">
-        <v>14663227.2658</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>29940.1198</v>
       </c>
       <c r="G13" t="n">
-        <v>14633287.146</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>3000</v>
       </c>
       <c r="G14" t="n">
-        <v>14636287.146</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3000</v>
       </c>
       <c r="G15" t="n">
-        <v>14639287.146</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>29316.9159</v>
       </c>
       <c r="G16" t="n">
-        <v>14609970.2301</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>896176.655</v>
       </c>
       <c r="G17" t="n">
-        <v>13713793.5751</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>66816.2723</v>
       </c>
       <c r="G18" t="n">
-        <v>13646977.3028</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>44514.7257</v>
       </c>
       <c r="G19" t="n">
-        <v>13602462.5771</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>131848.7826</v>
       </c>
       <c r="G20" t="n">
-        <v>13470613.7945</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1655705.3242</v>
       </c>
       <c r="G21" t="n">
-        <v>11814908.4703</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4000</v>
       </c>
       <c r="G22" t="n">
-        <v>11818908.4703</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>83466.936</v>
       </c>
       <c r="G23" t="n">
-        <v>11735441.5343</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>2168.6392</v>
       </c>
       <c r="G24" t="n">
-        <v>11737610.1735</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>402359</v>
       </c>
       <c r="G25" t="n">
-        <v>11335251.1735</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1452446</v>
       </c>
       <c r="G26" t="n">
-        <v>12787697.1735</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>223330.922</v>
       </c>
       <c r="G27" t="n">
-        <v>13011028.0955</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>2963263.2997</v>
       </c>
       <c r="G28" t="n">
-        <v>15974291.3952</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>113275.0629</v>
       </c>
       <c r="G29" t="n">
-        <v>15974291.3952</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,19 @@
         <v>48423.1082</v>
       </c>
       <c r="G30" t="n">
-        <v>15925868.287</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>0.333</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.333</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1317,23 @@
         <v>79080.3363</v>
       </c>
       <c r="G31" t="n">
-        <v>15925868.287</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0.3319</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1355,23 @@
         <v>9698.6476</v>
       </c>
       <c r="G32" t="n">
-        <v>15935566.9346</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0.3319</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1393,23 @@
         <v>1324357.4491</v>
       </c>
       <c r="G33" t="n">
-        <v>15935566.9346</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0.3323</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1431,21 @@
         <v>334186.4608</v>
       </c>
       <c r="G34" t="n">
-        <v>16269753.3954</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1467,21 @@
         <v>296823.9834</v>
       </c>
       <c r="G35" t="n">
-        <v>16566577.3788</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1503,21 @@
         <v>54845.7681</v>
       </c>
       <c r="G36" t="n">
-        <v>16511731.6107</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1539,21 @@
         <v>8805</v>
       </c>
       <c r="G37" t="n">
-        <v>16520536.6107</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1575,21 @@
         <v>185069.7032</v>
       </c>
       <c r="G38" t="n">
-        <v>16705606.3139</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1611,21 @@
         <v>60772.8695</v>
       </c>
       <c r="G39" t="n">
-        <v>16766379.1834</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1647,21 @@
         <v>201301.9287</v>
       </c>
       <c r="G40" t="n">
-        <v>16967681.1121</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1683,21 @@
         <v>957988.377</v>
       </c>
       <c r="G41" t="n">
-        <v>17925669.4891</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1719,21 @@
         <v>100000</v>
       </c>
       <c r="G42" t="n">
-        <v>18025669.4891</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1755,21 @@
         <v>10000</v>
       </c>
       <c r="G43" t="n">
-        <v>18025669.4891</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1791,21 @@
         <v>1466058.6042</v>
       </c>
       <c r="G44" t="n">
-        <v>19491728.0933</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1827,21 @@
         <v>1000000</v>
       </c>
       <c r="G45" t="n">
-        <v>18491728.0933</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1863,21 @@
         <v>278595.2224</v>
       </c>
       <c r="G46" t="n">
-        <v>18213132.8709</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1899,21 @@
         <v>10000</v>
       </c>
       <c r="G47" t="n">
-        <v>18203132.8709</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1.001906906906907</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1935,15 @@
         <v>73781.8783</v>
       </c>
       <c r="G48" t="n">
-        <v>18129350.9926</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1965,15 @@
         <v>3712.2548</v>
       </c>
       <c r="G49" t="n">
-        <v>18133063.2474</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1995,15 @@
         <v>4050895.8231</v>
       </c>
       <c r="G50" t="n">
-        <v>14082167.4243</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2025,15 @@
         <v>1552</v>
       </c>
       <c r="G51" t="n">
-        <v>14083719.4243</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2055,15 @@
         <v>152841.174</v>
       </c>
       <c r="G52" t="n">
-        <v>13930878.2503</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2085,15 @@
         <v>20120.5356</v>
       </c>
       <c r="G53" t="n">
-        <v>13950998.7859</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2115,15 @@
         <v>295032.8998</v>
       </c>
       <c r="G54" t="n">
-        <v>13950998.7859</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2145,15 @@
         <v>307841.3879</v>
       </c>
       <c r="G55" t="n">
-        <v>13643157.398</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2175,15 @@
         <v>1517</v>
       </c>
       <c r="G56" t="n">
-        <v>13644674.398</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2205,15 @@
         <v>8268.960300000001</v>
       </c>
       <c r="G57" t="n">
-        <v>13636405.4377</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2235,15 @@
         <v>101151</v>
       </c>
       <c r="G58" t="n">
-        <v>13535254.4377</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2265,15 @@
         <v>29646</v>
       </c>
       <c r="G59" t="n">
-        <v>13564900.4377</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2295,15 @@
         <v>936297.231</v>
       </c>
       <c r="G60" t="n">
-        <v>12628603.2067</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2325,15 @@
         <v>5166830.349</v>
       </c>
       <c r="G61" t="n">
-        <v>7461772.857699997</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2355,15 @@
         <v>1750734.8031</v>
       </c>
       <c r="G62" t="n">
-        <v>5711038.054599997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2385,15 @@
         <v>1158878.1963</v>
       </c>
       <c r="G63" t="n">
-        <v>6869916.250899997</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2415,15 @@
         <v>20311.0465</v>
       </c>
       <c r="G64" t="n">
-        <v>6890227.297399997</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2445,15 @@
         <v>180650</v>
       </c>
       <c r="G65" t="n">
-        <v>7070877.297399997</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2475,15 @@
         <v>4000</v>
       </c>
       <c r="G66" t="n">
-        <v>7066877.297399997</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2505,15 @@
         <v>183118.8018</v>
       </c>
       <c r="G67" t="n">
-        <v>6883758.495599997</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2535,15 @@
         <v>439257.713</v>
       </c>
       <c r="G68" t="n">
-        <v>6444500.782599997</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2565,15 @@
         <v>239772.9318</v>
       </c>
       <c r="G69" t="n">
-        <v>6684273.714399997</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2595,15 @@
         <v>585326.3852</v>
       </c>
       <c r="G70" t="n">
-        <v>6684273.714399997</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2625,15 @@
         <v>16641.70161773</v>
       </c>
       <c r="G71" t="n">
-        <v>6700915.416017727</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2655,15 @@
         <v>1071773.064</v>
       </c>
       <c r="G72" t="n">
-        <v>5629142.352017727</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2685,15 @@
         <v>15687.9872</v>
       </c>
       <c r="G73" t="n">
-        <v>5613454.364817726</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2715,15 @@
         <v>129513.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>5613454.364817726</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2745,15 @@
         <v>2754550.8535</v>
       </c>
       <c r="G75" t="n">
-        <v>2858903.511317726</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2775,15 @@
         <v>4838481.0438</v>
       </c>
       <c r="G76" t="n">
-        <v>2858903.511317726</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2805,15 @@
         <v>4359.1349</v>
       </c>
       <c r="G77" t="n">
-        <v>2863262.646217726</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2835,15 @@
         <v>74284.79730000001</v>
       </c>
       <c r="G78" t="n">
-        <v>2863262.646217726</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2865,15 @@
         <v>1606.8259</v>
       </c>
       <c r="G79" t="n">
-        <v>2863262.646217726</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2895,15 @@
         <v>144019.54</v>
       </c>
       <c r="G80" t="n">
-        <v>2719243.106217726</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2925,15 @@
         <v>2363486.4095</v>
       </c>
       <c r="G81" t="n">
-        <v>355756.6967177261</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2955,15 @@
         <v>88573.9593</v>
       </c>
       <c r="G82" t="n">
-        <v>444330.6560177261</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2985,15 @@
         <v>92873.14169999999</v>
       </c>
       <c r="G83" t="n">
-        <v>351457.5143177261</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3015,15 @@
         <v>522929.0081</v>
       </c>
       <c r="G84" t="n">
-        <v>874386.522417726</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3045,15 @@
         <v>1670826.1169</v>
       </c>
       <c r="G85" t="n">
-        <v>874386.522417726</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3075,15 @@
         <v>54945.055</v>
       </c>
       <c r="G86" t="n">
-        <v>929331.577417726</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3105,15 @@
         <v>14722.4575</v>
       </c>
       <c r="G87" t="n">
-        <v>914609.119917726</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3135,15 @@
         <v>7063.8429</v>
       </c>
       <c r="G88" t="n">
-        <v>914609.119917726</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3165,15 @@
         <v>5684.3502</v>
       </c>
       <c r="G89" t="n">
-        <v>908924.769717726</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3195,15 @@
         <v>2946319.2329</v>
       </c>
       <c r="G90" t="n">
-        <v>-2037394.463182274</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3225,15 @@
         <v>1367844.1394</v>
       </c>
       <c r="G91" t="n">
-        <v>-3405238.602582274</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3255,21 @@
         <v>1234038.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>-4639277.602482274</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.3323</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3291,21 @@
         <v>2936525.7285</v>
       </c>
       <c r="G93" t="n">
-        <v>-7575803.330982274</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>0.3321</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3327,21 @@
         <v>2216346.4358</v>
       </c>
       <c r="G94" t="n">
-        <v>-9792149.766782274</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.3319</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3363,19 @@
         <v>647355.2343</v>
       </c>
       <c r="G95" t="n">
-        <v>-9792149.766782274</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3397,19 @@
         <v>2411109.68</v>
       </c>
       <c r="G96" t="n">
-        <v>-9792149.766782274</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3431,19 @@
         <v>14945.9551</v>
       </c>
       <c r="G97" t="n">
-        <v>-9777203.811682275</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3465,19 @@
         <v>3676400.814</v>
       </c>
       <c r="G98" t="n">
-        <v>-13453604.62568227</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3499,19 @@
         <v>1208048.3812</v>
       </c>
       <c r="G99" t="n">
-        <v>-13453604.62568227</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3533,19 @@
         <v>197615</v>
       </c>
       <c r="G100" t="n">
-        <v>-13651219.62568227</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,22 +3567,19 @@
         <v>2000</v>
       </c>
       <c r="G101" t="n">
-        <v>-13649219.62568227</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3752,26 +3601,19 @@
         <v>544429.7634000001</v>
       </c>
       <c r="G102" t="n">
-        <v>-14193649.38908227</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.3326</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3793,26 +3635,19 @@
         <v>1071773.064</v>
       </c>
       <c r="G103" t="n">
-        <v>-14193649.38908227</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K103" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3834,26 +3669,19 @@
         <v>17941.3277</v>
       </c>
       <c r="G104" t="n">
-        <v>-14175708.06138227</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3875,26 +3703,19 @@
         <v>4000</v>
       </c>
       <c r="G105" t="n">
-        <v>-14171708.06138227</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.3336</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3916,26 +3737,19 @@
         <v>3378593.7431</v>
       </c>
       <c r="G106" t="n">
-        <v>-14171708.06138227</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3957,26 +3771,19 @@
         <v>35624632.01866946</v>
       </c>
       <c r="G107" t="n">
-        <v>21452923.95728719</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3998,24 +3805,19 @@
         <v>3580306.4507</v>
       </c>
       <c r="G108" t="n">
-        <v>17872617.50658719</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K108" t="inlineStr">
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4037,24 +3839,19 @@
         <v>2000</v>
       </c>
       <c r="G109" t="n">
-        <v>17874617.50658719</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4076,24 +3873,19 @@
         <v>7116901.4259</v>
       </c>
       <c r="G110" t="n">
-        <v>10757716.08068719</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K110" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4115,24 +3907,19 @@
         <v>14652.5712</v>
       </c>
       <c r="G111" t="n">
-        <v>10772368.65188719</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K111" t="inlineStr">
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4154,24 +3941,19 @@
         <v>599685.20152986</v>
       </c>
       <c r="G112" t="n">
-        <v>10772368.65188719</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K112" t="inlineStr">
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4193,24 +3975,17 @@
         <v>172143</v>
       </c>
       <c r="G113" t="n">
-        <v>10600225.65188719</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4232,24 +4007,15 @@
         <v>2160308.1162</v>
       </c>
       <c r="G114" t="n">
-        <v>10600225.65188719</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4271,24 +4037,15 @@
         <v>2000</v>
       </c>
       <c r="G115" t="n">
-        <v>10602225.65188719</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4310,24 +4067,15 @@
         <v>50000</v>
       </c>
       <c r="G116" t="n">
-        <v>10602225.65188719</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4349,24 +4097,15 @@
         <v>2200</v>
       </c>
       <c r="G117" t="n">
-        <v>10602225.65188719</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4388,24 +4127,15 @@
         <v>71319.61259999999</v>
       </c>
       <c r="G118" t="n">
-        <v>10530906.03928719</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4427,24 +4157,15 @@
         <v>246332.2172</v>
       </c>
       <c r="G119" t="n">
-        <v>10284573.82208719</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4466,24 +4187,15 @@
         <v>2774942.866</v>
       </c>
       <c r="G120" t="n">
-        <v>13059516.68808719</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4505,24 +4217,15 @@
         <v>2709494.7462</v>
       </c>
       <c r="G121" t="n">
-        <v>10350021.94188719</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4544,24 +4247,15 @@
         <v>60204.696</v>
       </c>
       <c r="G122" t="n">
-        <v>10289817.24588719</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4583,24 +4277,15 @@
         <v>60222.8245</v>
       </c>
       <c r="G123" t="n">
-        <v>10229594.42138719</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4622,24 +4307,15 @@
         <v>93570.9639</v>
       </c>
       <c r="G124" t="n">
-        <v>10136023.45748719</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4661,24 +4337,15 @@
         <v>4996278.2615</v>
       </c>
       <c r="G125" t="n">
-        <v>5139745.195987192</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4700,24 +4367,15 @@
         <v>7379012.7942</v>
       </c>
       <c r="G126" t="n">
-        <v>-2239267.598212808</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4739,24 +4397,15 @@
         <v>300360.5139</v>
       </c>
       <c r="G127" t="n">
-        <v>-1938907.084312808</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4778,24 +4427,15 @@
         <v>7239.4529</v>
       </c>
       <c r="G128" t="n">
-        <v>-1946146.537212808</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4817,24 +4457,15 @@
         <v>605770.0327</v>
       </c>
       <c r="G129" t="n">
-        <v>-2551916.569912808</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4856,24 +4487,15 @@
         <v>4409.6616</v>
       </c>
       <c r="G130" t="n">
-        <v>-2547506.908312808</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4895,24 +4517,15 @@
         <v>5590.3384</v>
       </c>
       <c r="G131" t="n">
-        <v>-2547506.908312808</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4934,24 +4547,15 @@
         <v>4409.6616</v>
       </c>
       <c r="G132" t="n">
-        <v>-2547506.908312808</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4973,24 +4577,15 @@
         <v>29221.2109</v>
       </c>
       <c r="G133" t="n">
-        <v>-2547506.908312808</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5012,24 +4607,15 @@
         <v>281389.0932</v>
       </c>
       <c r="G134" t="n">
-        <v>-2547506.908312808</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5051,24 +4637,15 @@
         <v>6556940.6096</v>
       </c>
       <c r="G135" t="n">
-        <v>-9104447.517912809</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5090,24 +4667,15 @@
         <v>3701807.3117</v>
       </c>
       <c r="G136" t="n">
-        <v>-12806254.82961281</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5129,26 +4697,15 @@
         <v>48387</v>
       </c>
       <c r="G137" t="n">
-        <v>-12806254.82961281</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.3295</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.3316</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
